--- a/out/production/My2DGame/text.xlsx
+++ b/out/production/My2DGame/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
   <si>
     <t>Nyelvek</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>NYELV</t>
+  </si>
+  <si>
+    <t>FORRÁSOK</t>
   </si>
 </sst>
 </file>
@@ -845,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,6 +1425,11 @@
         <v>144</v>
       </c>
     </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
